--- a/source_plates/220107_source_plate.xlsx
+++ b/source_plates/220107_source_plate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BF44C0-DCE8-4FE6-838A-5B77F09DBA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A5D63D-CAB2-4BFC-90A3-AE821E6744B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
   </bookViews>
@@ -443,9 +443,6 @@
     <t>B23</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
   </si>
   <si>
     <t>25,65,65,65,65,65,65,65,65,65,65,65</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D29ACC-8067-425A-9239-04930501B2E7}">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1115,10 +1115,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="1"/>
@@ -1430,7 +1430,7 @@
         <v>39</v>
       </c>
       <c r="D11">
-        <v>188</v>
+        <v>189.3</v>
       </c>
       <c r="E11">
         <v>31</v>
@@ -2210,10 +2210,10 @@
         <v>123</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="D52" s="8">
         <v>1.7237</v>
@@ -2418,7 +2418,7 @@
         <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="D64">
         <v>1000000</v>
@@ -2435,7 +2435,7 @@
         <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D65" s="7">
         <f>100000000</f>
@@ -2453,7 +2453,7 @@
         <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D66">
         <v>200</v>
@@ -2467,10 +2467,10 @@
         <v>119</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D67">
         <v>10000</v>
@@ -2484,10 +2484,10 @@
         <v>120</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68">
         <f>1000000</f>
@@ -2502,10 +2502,10 @@
         <v>121</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -2519,10 +2519,10 @@
         <v>121</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
         <v>156</v>
-      </c>
-      <c r="C70" t="s">
-        <v>157</v>
       </c>
       <c r="D70">
         <v>0.2</v>
@@ -2533,13 +2533,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71">
         <v>131.5</v>
@@ -2550,13 +2550,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72">
         <v>215.49538586350269</v>
@@ -2567,13 +2567,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s">
         <v>158</v>
-      </c>
-      <c r="B73" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" t="s">
-        <v>159</v>
       </c>
       <c r="D73">
         <v>180</v>
@@ -2584,13 +2584,13 @@
     </row>
     <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D74" s="8">
         <v>1.8</v>
@@ -2601,13 +2601,13 @@
     </row>
     <row r="75" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="8">
         <v>1.7999999999999999E-2</v>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="76" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="D76" s="8">
         <v>270</v>
@@ -2635,13 +2635,13 @@
     </row>
     <row r="77" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D77" s="8">
         <v>284.69716369844411</v>
@@ -2652,13 +2652,13 @@
     </row>
     <row r="78" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D78" s="8">
         <v>18</v>
@@ -2710,7 +2710,7 @@
         <v>83</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>25</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>119</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -3309,52 +3309,52 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -3364,40 +3364,40 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -3423,12 +3423,12 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/source_plates/220107_source_plate.xlsx
+++ b/source_plates/220107_source_plate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A5D63D-CAB2-4BFC-90A3-AE821E6744B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CBF18E-3B4F-B14A-9F87-2B25CADE9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
+    <workbookView xWindow="4920" yWindow="2620" windowWidth="31060" windowHeight="16800" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="ECHO_source_plate" sheetId="1" r:id="rId1"/>
@@ -1057,20 +1057,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D29ACC-8067-425A-9239-04930501B2E7}">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.578125" customWidth="1"/>
-    <col min="2" max="2" width="20.68359375" customWidth="1"/>
-    <col min="3" max="3" width="25.05078125" customWidth="1"/>
-    <col min="4" max="4" width="14.05078125" customWidth="1"/>
-    <col min="5" max="5" width="23.89453125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1108,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1141,7 +1142,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1180,7 +1181,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1217,7 +1218,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1254,7 +1255,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1291,7 +1292,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1328,7 +1329,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1365,7 +1366,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1403,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1456,7 +1457,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1510,7 +1511,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
@@ -1547,7 +1548,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -1584,7 +1585,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>43</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>12</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>11</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1819,10 +1820,10 @@
         <v>226.9</v>
       </c>
       <c r="E29">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>46.475000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>50.274999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>50.45</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>47.85</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>61.15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>61.85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1989,10 +1990,10 @@
         <v>244.2</v>
       </c>
       <c r="E39">
-        <v>64.775000000000006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>64.275000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>64.75</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>64.775000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>64.75</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>123</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>123</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>108</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>109</v>
       </c>
@@ -2257,7 +2258,7 @@
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>110</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>111</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>112</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>113</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>114</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>115</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>116</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>117</v>
       </c>
@@ -2393,7 +2394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>118</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>119</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>120</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>49.85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>121</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>119</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>120</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>121</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>121</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>151</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>152</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>157</v>
       </c>
@@ -2582,7 +2583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>157</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>157</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>169</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>168</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>157</v>
       </c>
@@ -2682,12 +2683,12 @@
       <selection activeCell="B19" sqref="A1:R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="13.9453125" customWidth="1"/>
+    <col min="2" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>111</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>159</v>
       </c>
@@ -2764,7 +2765,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>160</v>
       </c>
@@ -2788,7 +2789,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>161</v>
       </c>
@@ -2812,7 +2813,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>162</v>
       </c>
@@ -2836,7 +2837,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>163</v>
       </c>
@@ -2857,7 +2858,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>171</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>172</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>173</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>174</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>175</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>176</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>177</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>178</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>179</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>182</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>183</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>186</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>187</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>184</v>
       </c>
@@ -3187,7 +3188,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>185</v>
       </c>
@@ -3214,7 +3215,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>188</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>189</v>
       </c>
@@ -3267,9 +3268,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -3337,7 +3338,7 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -3362,7 +3363,7 @@
       <c r="J3" s="10"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3395,7 +3396,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -3404,7 +3405,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -3413,7 +3414,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -3421,12 +3422,12 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>150</v>
       </c>

--- a/source_plates/220107_source_plate.xlsx
+++ b/source_plates/220107_source_plate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CBF18E-3B4F-B14A-9F87-2B25CADE9047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C924900-83AA-402A-BACD-A68D54FEA738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2620" windowWidth="31060" windowHeight="16800" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="ECHO_source_plate" sheetId="1" r:id="rId1"/>
@@ -1057,21 +1057,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D29ACC-8067-425A-9239-04930501B2E7}">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>43</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>11</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>46.9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>46.475000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>50.274999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>50.45</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>47.85</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>61.15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>61.85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>64.275000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>64.75</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>64.775000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>64.75</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>64.974999999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>123</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>123</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>108</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>109</v>
       </c>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>110</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>111</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>112</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>113</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>114</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>115</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>116</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>117</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>118</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>119</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>120</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>49.85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>121</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>119</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>120</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>121</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>121</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>151</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>152</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>157</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>157</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>157</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>169</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>168</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>157</v>
       </c>
@@ -2683,12 +2683,12 @@
       <selection activeCell="B19" sqref="A1:R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>111</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>159</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>160</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>161</v>
       </c>
@@ -2813,7 +2813,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>162</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>163</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>171</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>172</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>173</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>174</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>175</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>176</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>177</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>178</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>179</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>182</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>183</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>186</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>187</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>184</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>185</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>188</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>189</v>
       </c>
@@ -3268,9 +3268,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="J3" s="10"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -3422,12 +3422,12 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>150</v>
       </c>
